--- a/Koudaya/Rapport_Complet_PMET.xlsx
+++ b/Koudaya/Rapport_Complet_PMET.xlsx
@@ -2676,7 +2676,7 @@
     <row r="3">
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Généré le: 09/01/2026 14:30</t>
+          <t>Généré le: 12/01/2026 09:56</t>
         </is>
       </c>
     </row>

--- a/Koudaya/Rapport_Complet_PMET.xlsx
+++ b/Koudaya/Rapport_Complet_PMET.xlsx
@@ -2676,7 +2676,7 @@
     <row r="3">
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Généré le: 12/01/2026 09:56</t>
+          <t>Généré le: 15/01/2026 09:42</t>
         </is>
       </c>
     </row>
